--- a/Jogos_do_Dia/2023-06-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -226,21 +226,21 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
-    <t>Arda</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
     <t>CFR Cluj</t>
   </si>
   <si>
@@ -298,19 +298,19 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
+    <t>AFC Eskilstuna</t>
+  </si>
+  <si>
+    <t>Öster</t>
+  </si>
+  <si>
     <t>Örgryte</t>
-  </si>
-  <si>
-    <t>Öster</t>
-  </si>
-  <si>
-    <t>AFC Eskilstuna</t>
-  </si>
-  <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Skövde AIK</t>
   </si>
   <si>
     <t>U Craiova 1948</t>
@@ -850,13 +850,13 @@
         <v>90</v>
       </c>
       <c r="G2">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="I2">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -871,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="O2">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -898,10 +898,10 @@
         <v>1.7</v>
       </c>
       <c r="W2">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X2">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="Y2">
         <v>1.49</v>
@@ -1064,52 +1064,52 @@
         <v>92</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W4">
         <v>1.95</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>93</v>
       </c>
       <c r="G5">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="H5">
-        <v>3.14</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J5">
         <v>1.01</v>
@@ -1192,10 +1192,10 @@
         <v>4.3</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P5">
         <v>1.3</v>
@@ -1278,96 +1278,96 @@
         <v>94</v>
       </c>
       <c r="G6">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="H6">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M6">
-        <v>3.46</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="U6">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="V6">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="W6">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.15</v>
+        <v>1.16</v>
       </c>
       <c r="Z6">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="AA6">
-        <v>3.72</v>
+        <v>2.43</v>
       </c>
       <c r="AB6">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AC6">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AG6">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AH6">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AI6">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>45078</v>
@@ -1376,7 +1376,7 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
@@ -1385,91 +1385,91 @@
         <v>95</v>
       </c>
       <c r="G7">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I7">
-        <v>2.25</v>
+        <v>3.95</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M7">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="O7">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="Q7">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="U7">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="V7">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="X7">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="Y7">
+        <v>1.72</v>
+      </c>
+      <c r="Z7">
         <v>1.5</v>
       </c>
-      <c r="Z7">
-        <v>1.69</v>
-      </c>
       <c r="AA7">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="AB7">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1492,13 +1492,13 @@
         <v>96</v>
       </c>
       <c r="G8">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H8">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I8">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P8">
         <v>1.33</v>
@@ -1564,7 +1564,7 @@
         <v>3.32</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF8">
         <v>1.25</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>45078</v>
@@ -1590,7 +1590,7 @@
         <v>52</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
@@ -1599,91 +1599,91 @@
         <v>97</v>
       </c>
       <c r="G9">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I9">
-        <v>3.95</v>
+        <v>2.25</v>
       </c>
       <c r="J9">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="K9">
+        <v>10.5</v>
+      </c>
+      <c r="L9">
+        <v>1.22</v>
+      </c>
+      <c r="M9">
+        <v>3.72</v>
+      </c>
+      <c r="N9">
+        <v>1.75</v>
+      </c>
+      <c r="O9">
+        <v>2.08</v>
+      </c>
+      <c r="P9">
+        <v>1.34</v>
+      </c>
+      <c r="Q9">
+        <v>3.1</v>
+      </c>
+      <c r="R9">
+        <v>1.61</v>
+      </c>
+      <c r="S9">
+        <v>2.25</v>
+      </c>
+      <c r="T9">
+        <v>1.61</v>
+      </c>
+      <c r="U9">
+        <v>1.27</v>
+      </c>
+      <c r="V9">
+        <v>1.36</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1.75</v>
+      </c>
+      <c r="Y9">
+        <v>1.5</v>
+      </c>
+      <c r="Z9">
+        <v>1.69</v>
+      </c>
+      <c r="AA9">
+        <v>3.19</v>
+      </c>
+      <c r="AB9">
+        <v>2.43</v>
+      </c>
+      <c r="AC9">
         <v>7.5</v>
       </c>
-      <c r="L9">
-        <v>1.36</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>2.48</v>
-      </c>
-      <c r="O9">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>2.75</v>
-      </c>
-      <c r="R9">
-        <v>1.85</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>1.3</v>
-      </c>
-      <c r="U9">
-        <v>1.33</v>
-      </c>
-      <c r="V9">
-        <v>1.65</v>
-      </c>
-      <c r="W9">
-        <v>1.82</v>
-      </c>
-      <c r="X9">
-        <v>1.35</v>
-      </c>
-      <c r="Y9">
-        <v>1.72</v>
-      </c>
-      <c r="Z9">
-        <v>1.5</v>
-      </c>
-      <c r="AA9">
-        <v>3.22</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1706,91 +1706,91 @@
         <v>98</v>
       </c>
       <c r="G10">
+        <v>1.58</v>
+      </c>
+      <c r="H10">
+        <v>3.95</v>
+      </c>
+      <c r="I10">
+        <v>5.3</v>
+      </c>
+      <c r="J10">
+        <v>1.01</v>
+      </c>
+      <c r="K10">
+        <v>9.6</v>
+      </c>
+      <c r="L10">
+        <v>1.25</v>
+      </c>
+      <c r="M10">
+        <v>3.46</v>
+      </c>
+      <c r="N10">
         <v>1.83</v>
       </c>
-      <c r="H10">
-        <v>3.2</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>1.02</v>
-      </c>
-      <c r="K10">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1.29</v>
-      </c>
-      <c r="M10">
-        <v>3.2</v>
-      </c>
-      <c r="N10">
-        <v>2.02</v>
-      </c>
       <c r="O10">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q10">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="R10">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="U10">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="V10">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y10">
-        <v>1.16</v>
+        <v>2.15</v>
       </c>
       <c r="Z10">
+        <v>1.57</v>
+      </c>
+      <c r="AA10">
+        <v>3.72</v>
+      </c>
+      <c r="AB10">
+        <v>1.37</v>
+      </c>
+      <c r="AC10">
+        <v>8.5</v>
+      </c>
+      <c r="AD10">
+        <v>3.85</v>
+      </c>
+      <c r="AE10">
+        <v>1.14</v>
+      </c>
+      <c r="AF10">
         <v>1.27</v>
       </c>
-      <c r="AA10">
-        <v>2.43</v>
-      </c>
-      <c r="AB10">
-        <v>1.46</v>
-      </c>
-      <c r="AC10">
-        <v>8</v>
-      </c>
-      <c r="AD10">
-        <v>3.35</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1.24</v>
-      </c>
       <c r="AG10">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AH10">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AI10">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1813,13 +1813,13 @@
         <v>99</v>
       </c>
       <c r="G11">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="H11">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I11">
-        <v>4.18</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
         <v>1.08</v>
@@ -1834,10 +1834,10 @@
         <v>2.9</v>
       </c>
       <c r="N11">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="O11">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="P11">
         <v>1.48</v>
@@ -1876,28 +1876,28 @@
         <v>3.26</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1920,13 +1920,13 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I12">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="J12">
         <v>1.03</v>
@@ -1941,10 +1941,10 @@
         <v>4.75</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="O12">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="P12">
         <v>1.28</v>
@@ -2027,13 +2027,13 @@
         <v>101</v>
       </c>
       <c r="G13">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="H13">
-        <v>2.83</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="J13">
         <v>1.08</v>
@@ -2048,10 +2048,10 @@
         <v>2.8</v>
       </c>
       <c r="N13">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="O13">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P13">
         <v>1.47</v>
@@ -2241,13 +2241,13 @@
         <v>103</v>
       </c>
       <c r="G15">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
         <v>1.03</v>
@@ -2262,10 +2262,10 @@
         <v>4.3</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="P15">
         <v>1.3</v>
@@ -2348,13 +2348,13 @@
         <v>104</v>
       </c>
       <c r="G16">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H16">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I16">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2369,10 +2369,10 @@
         <v>5.25</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O16">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P16">
         <v>1.23</v>
@@ -2455,52 +2455,52 @@
         <v>105</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>6.75</v>
       </c>
       <c r="L19">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M19">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
         <v>2.43</v>
@@ -2990,13 +2990,13 @@
         <v>110</v>
       </c>
       <c r="G22">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
         <v>1.04</v>
@@ -3011,10 +3011,10 @@
         <v>3.87</v>
       </c>
       <c r="N22">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P22">
         <v>1.38</v>
@@ -3225,10 +3225,10 @@
         <v>3.75</v>
       </c>
       <c r="N24">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="O24">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="P24">
         <v>1.36</v>
@@ -3267,13 +3267,13 @@
         <v>2.71</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25" spans="1:35">
